--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.333723</v>
+        <v>10.29746733333333</v>
       </c>
       <c r="H2">
-        <v>37.001169</v>
+        <v>30.892402</v>
       </c>
       <c r="I2">
-        <v>0.03887240735130859</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="J2">
-        <v>0.0388724073513086</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>27.73651207394601</v>
+        <v>18.80900371717733</v>
       </c>
       <c r="R2">
-        <v>249.628608665514</v>
+        <v>169.281033454596</v>
       </c>
       <c r="S2">
-        <v>0.001395633794370628</v>
+        <v>0.0009046616255870281</v>
       </c>
       <c r="T2">
-        <v>0.001395633794370628</v>
+        <v>0.0009046616255870283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.333723</v>
+        <v>10.29746733333333</v>
       </c>
       <c r="H3">
-        <v>37.001169</v>
+        <v>30.892402</v>
       </c>
       <c r="I3">
-        <v>0.03887240735130859</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="J3">
-        <v>0.0388724073513086</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>546.261327582139</v>
+        <v>456.0754426088843</v>
       </c>
       <c r="R3">
-        <v>4916.351948239251</v>
+        <v>4104.678983479958</v>
       </c>
       <c r="S3">
-        <v>0.02748654074812569</v>
+        <v>0.02193598116651309</v>
       </c>
       <c r="T3">
-        <v>0.02748654074812569</v>
+        <v>0.02193598116651309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.333723</v>
+        <v>10.29746733333333</v>
       </c>
       <c r="H4">
-        <v>37.001169</v>
+        <v>30.892402</v>
       </c>
       <c r="I4">
-        <v>0.03887240735130859</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="J4">
-        <v>0.0388724073513086</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>198.543639485393</v>
+        <v>196.7729577369351</v>
       </c>
       <c r="R4">
-        <v>1786.892755368537</v>
+        <v>1770.956619632416</v>
       </c>
       <c r="S4">
-        <v>0.009990232808812271</v>
+        <v>0.009464240982380844</v>
       </c>
       <c r="T4">
-        <v>0.009990232808812272</v>
+        <v>0.009464240982380844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.5732116666666</v>
+        <v>10.29746733333333</v>
       </c>
       <c r="H5">
-        <v>904.7196349999999</v>
+        <v>30.892402</v>
       </c>
       <c r="I5">
-        <v>0.950473488836183</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="J5">
-        <v>0.9504734888361831</v>
+        <v>0.03236282443656328</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>678.1884939828121</v>
+        <v>1.204656080968222</v>
       </c>
       <c r="R5">
-        <v>6103.696445845309</v>
+        <v>10.841904728714</v>
       </c>
       <c r="S5">
-        <v>0.03412479473382745</v>
+        <v>5.79406620823167E-05</v>
       </c>
       <c r="T5">
-        <v>0.03412479473382744</v>
+        <v>5.79406620823167E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>904.7196349999999</v>
       </c>
       <c r="I6">
-        <v>0.950473488836183</v>
+        <v>0.9477826525699299</v>
       </c>
       <c r="J6">
-        <v>0.9504734888361831</v>
+        <v>0.9477826525699298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>13356.69553858496</v>
+        <v>550.8433749411365</v>
       </c>
       <c r="R6">
-        <v>120210.2598472646</v>
+        <v>4957.590374470229</v>
       </c>
       <c r="S6">
-        <v>0.672076417722286</v>
+        <v>0.02649405946807253</v>
       </c>
       <c r="T6">
-        <v>0.672076417722286</v>
+        <v>0.02649405946807253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>904.7196349999999</v>
       </c>
       <c r="I7">
-        <v>0.950473488836183</v>
+        <v>0.9477826525699299</v>
       </c>
       <c r="J7">
-        <v>0.9504734888361831</v>
+        <v>0.9477826525699298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>4854.612270406817</v>
+        <v>13356.69553858496</v>
       </c>
       <c r="R7">
-        <v>43691.51043366135</v>
+        <v>120210.2598472647</v>
       </c>
       <c r="S7">
-        <v>0.2442722763800695</v>
+        <v>0.642420517327678</v>
       </c>
       <c r="T7">
-        <v>0.2442722763800696</v>
+        <v>0.6424205173276779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1133353333333333</v>
+        <v>301.5732116666666</v>
       </c>
       <c r="H8">
-        <v>0.340006</v>
+        <v>904.7196349999999</v>
       </c>
       <c r="I8">
-        <v>0.000357200923405664</v>
+        <v>0.9477826525699299</v>
       </c>
       <c r="J8">
-        <v>0.000357200923405664</v>
+        <v>0.9477826525699298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>0.2548725021151111</v>
+        <v>5762.723096172009</v>
       </c>
       <c r="R8">
-        <v>2.293852519036</v>
+        <v>51864.50786554808</v>
       </c>
       <c r="S8">
-        <v>1.282456410738752E-05</v>
+        <v>0.2771712166354574</v>
       </c>
       <c r="T8">
-        <v>1.282456410738752E-05</v>
+        <v>0.2771712166354574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>301.5732116666666</v>
+      </c>
+      <c r="H9">
+        <v>904.7196349999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9477826525699299</v>
+      </c>
+      <c r="J9">
+        <v>0.9477826525699298</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.1133353333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.340006</v>
-      </c>
-      <c r="I9">
-        <v>0.000357200923405664</v>
-      </c>
-      <c r="J9">
-        <v>0.000357200923405664</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>5.019628675674888</v>
+        <v>35.27974321563277</v>
       </c>
       <c r="R9">
-        <v>45.176658081074</v>
+        <v>317.5176889406949</v>
       </c>
       <c r="S9">
-        <v>0.0002525755003472248</v>
+        <v>0.001696859138721939</v>
       </c>
       <c r="T9">
-        <v>0.0002525755003472248</v>
+        <v>0.001696859138721939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1133353333333333</v>
+        <v>1.128766333333333</v>
       </c>
       <c r="H10">
-        <v>0.340006</v>
+        <v>3.386299</v>
       </c>
       <c r="I10">
-        <v>0.000357200923405664</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="J10">
-        <v>0.000357200923405664</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>1.824429619693111</v>
+        <v>2.061766206411333</v>
       </c>
       <c r="R10">
-        <v>16.419866577238</v>
+        <v>18.555895857702</v>
       </c>
       <c r="S10">
-        <v>9.180085895105165E-05</v>
+        <v>9.916531443763187E-05</v>
       </c>
       <c r="T10">
-        <v>9.180085895105165E-05</v>
+        <v>9.916531443763189E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.466604</v>
+        <v>1.128766333333333</v>
       </c>
       <c r="H11">
-        <v>7.399812000000001</v>
+        <v>3.386299</v>
       </c>
       <c r="I11">
-        <v>0.007774038338818472</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="J11">
-        <v>0.007774038338818473</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>5.546986228541335</v>
+        <v>49.9931282530579</v>
       </c>
       <c r="R11">
-        <v>49.92287605687201</v>
+        <v>449.9381542775211</v>
       </c>
       <c r="S11">
-        <v>0.000279110849151531</v>
+        <v>0.002404532709634625</v>
       </c>
       <c r="T11">
-        <v>0.0002791108491515309</v>
+        <v>0.002404532709634625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.466604</v>
+        <v>1.128766333333333</v>
       </c>
       <c r="H12">
-        <v>7.399812000000001</v>
+        <v>3.386299</v>
       </c>
       <c r="I12">
-        <v>0.007774038338818472</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="J12">
-        <v>0.007774038338818473</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>109.2460383340387</v>
+        <v>21.56944837153245</v>
       </c>
       <c r="R12">
-        <v>983.2143450063479</v>
+        <v>194.125035343792</v>
       </c>
       <c r="S12">
-        <v>0.005496994812960354</v>
+        <v>0.001037431462092047</v>
       </c>
       <c r="T12">
-        <v>0.005496994812960355</v>
+        <v>0.001037431462092047</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.466604</v>
+        <v>1.128766333333333</v>
       </c>
       <c r="H13">
-        <v>7.399812000000001</v>
+        <v>3.386299</v>
       </c>
       <c r="I13">
-        <v>0.007774038338818472</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="J13">
-        <v>0.007774038338818473</v>
+        <v>0.003547480705019629</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>39.70646457109734</v>
+        <v>0.1320494820158889</v>
       </c>
       <c r="R13">
-        <v>357.358181139876</v>
+        <v>1.188445338143</v>
       </c>
       <c r="S13">
-        <v>0.001997932676706586</v>
+        <v>6.351218855325233E-06</v>
       </c>
       <c r="T13">
-        <v>0.001997932676706586</v>
+        <v>6.351218855325233E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8004729999999999</v>
+        <v>3.752174</v>
       </c>
       <c r="H14">
-        <v>2.401419</v>
+        <v>11.256522</v>
       </c>
       <c r="I14">
-        <v>0.00252286455028413</v>
+        <v>0.01179231207894783</v>
       </c>
       <c r="J14">
-        <v>0.002522864550284131</v>
+        <v>0.01179231207894783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>1.800131965779333</v>
+        <v>6.853593454484</v>
       </c>
       <c r="R14">
-        <v>16.201187692014</v>
+        <v>61.682341090356</v>
       </c>
       <c r="S14">
-        <v>9.057826013128717E-05</v>
+        <v>0.0003296390967259893</v>
       </c>
       <c r="T14">
-        <v>9.057826013128714E-05</v>
+        <v>0.0003296390967259893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8004729999999999</v>
+        <v>3.752174</v>
       </c>
       <c r="H15">
-        <v>2.401419</v>
+        <v>11.256522</v>
       </c>
       <c r="I15">
-        <v>0.00252286455028413</v>
+        <v>0.01179231207894783</v>
       </c>
       <c r="J15">
-        <v>0.002522864550284131</v>
+        <v>0.01179231207894783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>35.45299693155565</v>
+        <v>166.1840103397153</v>
       </c>
       <c r="R15">
-        <v>319.0769723840009</v>
+        <v>1495.656093057438</v>
       </c>
       <c r="S15">
-        <v>0.001783908535344471</v>
+        <v>0.007992996290558444</v>
       </c>
       <c r="T15">
-        <v>0.001783908535344471</v>
+        <v>0.007992996290558442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8004729999999999</v>
+        <v>3.752174</v>
       </c>
       <c r="H16">
-        <v>2.401419</v>
+        <v>11.256522</v>
       </c>
       <c r="I16">
-        <v>0.00252286455028413</v>
+        <v>0.01179231207894783</v>
       </c>
       <c r="J16">
-        <v>0.002522864550284131</v>
+        <v>0.01179231207894783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>12.88571364297633</v>
+        <v>71.69980268193068</v>
       </c>
       <c r="R16">
-        <v>115.971422786787</v>
+        <v>645.298224137376</v>
       </c>
       <c r="S16">
-        <v>0.0006483777548083724</v>
+        <v>0.003448564369694256</v>
       </c>
       <c r="T16">
-        <v>0.0006483777548083725</v>
+        <v>0.003448564369694256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.752174</v>
+      </c>
+      <c r="H17">
+        <v>11.256522</v>
+      </c>
+      <c r="I17">
+        <v>0.01179231207894783</v>
+      </c>
+      <c r="J17">
+        <v>0.01179231207894783</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.4389505768393333</v>
+      </c>
+      <c r="R17">
+        <v>3.950555191554</v>
+      </c>
+      <c r="S17">
+        <v>2.111232196914192E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.111232196914192E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.436533666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.309601000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.004514730209539471</v>
+      </c>
+      <c r="J18">
+        <v>0.00451473020953947</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>2.623923553388667</v>
+      </c>
+      <c r="R18">
+        <v>23.615311980498</v>
+      </c>
+      <c r="S18">
+        <v>0.0001262035450105655</v>
+      </c>
+      <c r="T18">
+        <v>0.0001262035450105655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.436533666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.309601000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.004514730209539471</v>
+      </c>
+      <c r="J19">
+        <v>0.00451473020953947</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>63.62416180984212</v>
+      </c>
+      <c r="R19">
+        <v>572.6174562885791</v>
+      </c>
+      <c r="S19">
+        <v>0.003060148135168835</v>
+      </c>
+      <c r="T19">
+        <v>0.003060148135168834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.436533666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.309601000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.004514730209539471</v>
+      </c>
+      <c r="J20">
+        <v>0.00451473020953947</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>27.45053412926756</v>
+      </c>
+      <c r="R20">
+        <v>247.054807163408</v>
+      </c>
+      <c r="S20">
+        <v>0.001320295598960206</v>
+      </c>
+      <c r="T20">
+        <v>0.001320295598960206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.436533666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.309601000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.004514730209539471</v>
+      </c>
+      <c r="J21">
+        <v>0.00451473020953947</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>0.1680538486841111</v>
+      </c>
+      <c r="R21">
+        <v>1.512484638157</v>
+      </c>
+      <c r="S21">
+        <v>8.08293039986383E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.082930399863828E-06</v>
       </c>
     </row>
   </sheetData>
